--- a/USD_Euro.xlsx
+++ b/USD_Euro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidgerbing/Documents/000/0Forecast/2HWTests/HW04/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9442A72B-C8A2-9449-AED7-E1F33CC038CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6734B5-F56C-AE47-97B4-E5E323D2556E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="18460" xr2:uid="{4EBE1151-1EBA-9B4E-8F36-C3E4EE918A0E}"/>
   </bookViews>
@@ -447,7 +447,7 @@
   <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -462,421 +462,424 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <v>46040</v>
+        <v>45683</v>
       </c>
       <c r="B2" s="2">
-        <v>0.84540000000000004</v>
+        <v>0.96499999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>46033</v>
+        <v>45690</v>
       </c>
       <c r="B3" s="2">
-        <v>0.86219999999999997</v>
+        <v>0.96830000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>46026</v>
+        <v>45697</v>
       </c>
       <c r="B4" s="2">
-        <v>0.85929999999999995</v>
+        <v>0.95299999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>46019</v>
+        <v>45704</v>
       </c>
       <c r="B5" s="2">
-        <v>0.85329999999999995</v>
+        <v>0.95609999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <v>46012</v>
+        <v>45711</v>
       </c>
       <c r="B6" s="2">
-        <v>0.84940000000000004</v>
+        <v>0.96379999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>46005</v>
+        <v>45718</v>
       </c>
       <c r="B7" s="2">
-        <v>0.85399999999999998</v>
+        <v>0.92310000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>45998</v>
+        <v>45725</v>
       </c>
       <c r="B8" s="2">
-        <v>0.8518</v>
+        <v>0.91910000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>45991</v>
+        <v>45732</v>
       </c>
       <c r="B9" s="2">
-        <v>0.85899999999999999</v>
+        <v>0.92469999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>45984</v>
+        <v>45739</v>
       </c>
       <c r="B10" s="2">
-        <v>0.86240000000000006</v>
+        <v>0.92349999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>45977</v>
+        <v>45746</v>
       </c>
       <c r="B11" s="2">
-        <v>0.86860000000000004</v>
+        <v>0.91279999999999994</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>45970</v>
+        <v>45753</v>
       </c>
       <c r="B12" s="2">
-        <v>0.86050000000000004</v>
+        <v>0.88029999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>45963</v>
+        <v>45760</v>
       </c>
       <c r="B13" s="2">
-        <v>0.86460000000000004</v>
+        <v>0.87780000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>45956</v>
+        <v>45767</v>
       </c>
       <c r="B14" s="2">
-        <v>0.8669</v>
+        <v>0.87990000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>45949</v>
+        <v>45774</v>
       </c>
       <c r="B15" s="2">
-        <v>0.86019999999999996</v>
+        <v>0.88529999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>45942</v>
+        <v>45781</v>
       </c>
       <c r="B16" s="2">
-        <v>0.85829999999999995</v>
+        <v>0.8891</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>45935</v>
+        <v>45788</v>
       </c>
       <c r="B17" s="2">
-        <v>0.86060000000000003</v>
+        <v>0.89580000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>45928</v>
+        <v>45795</v>
       </c>
       <c r="B18" s="2">
-        <v>0.85160000000000002</v>
+        <v>0.87990000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>45921</v>
+        <v>45802</v>
       </c>
       <c r="B19" s="2">
-        <v>0.85460000000000003</v>
+        <v>0.88119999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>45914</v>
+        <v>45809</v>
       </c>
       <c r="B20" s="2">
-        <v>0.85140000000000005</v>
+        <v>0.87760000000000005</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>45907</v>
+        <v>45816</v>
       </c>
       <c r="B21" s="2">
-        <v>0.85229999999999995</v>
+        <v>0.86570000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>45900</v>
+        <v>45823</v>
       </c>
       <c r="B22" s="2">
-        <v>0.85340000000000005</v>
+        <v>0.8679</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>45893</v>
+        <v>45830</v>
       </c>
       <c r="B23" s="2">
-        <v>0.85580000000000001</v>
+        <v>0.85329999999999995</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>45886</v>
+        <v>45837</v>
       </c>
       <c r="B24" s="2">
-        <v>0.85350000000000004</v>
+        <v>0.84899999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>45879</v>
+        <v>45844</v>
       </c>
       <c r="B25" s="2">
-        <v>0.85489999999999999</v>
+        <v>0.85550000000000004</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>45872</v>
+        <v>45851</v>
       </c>
       <c r="B26" s="2">
-        <v>0.85909999999999997</v>
+        <v>0.86019999999999996</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>45865</v>
+        <v>45858</v>
       </c>
       <c r="B27" s="2">
-        <v>0.86319999999999997</v>
+        <v>0.85170000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>45858</v>
+        <v>45865</v>
       </c>
       <c r="B28" s="2">
-        <v>0.85170000000000001</v>
+        <v>0.86319999999999997</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>45851</v>
+        <v>45872</v>
       </c>
       <c r="B29" s="2">
-        <v>0.86019999999999996</v>
+        <v>0.85909999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>45844</v>
+        <v>45879</v>
       </c>
       <c r="B30" s="2">
-        <v>0.85550000000000004</v>
+        <v>0.85489999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>45837</v>
+        <v>45886</v>
       </c>
       <c r="B31" s="2">
-        <v>0.84899999999999998</v>
+        <v>0.85350000000000004</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>45830</v>
+        <v>45893</v>
       </c>
       <c r="B32" s="2">
-        <v>0.85329999999999995</v>
+        <v>0.85580000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>45823</v>
+        <v>45900</v>
       </c>
       <c r="B33" s="2">
-        <v>0.8679</v>
+        <v>0.85340000000000005</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>45816</v>
+        <v>45907</v>
       </c>
       <c r="B34" s="2">
-        <v>0.86570000000000003</v>
+        <v>0.85229999999999995</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <v>45809</v>
+        <v>45914</v>
       </c>
       <c r="B35" s="2">
-        <v>0.87760000000000005</v>
+        <v>0.85140000000000005</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>45802</v>
+        <v>45921</v>
       </c>
       <c r="B36" s="2">
-        <v>0.88119999999999998</v>
+        <v>0.85460000000000003</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>45795</v>
+        <v>45928</v>
       </c>
       <c r="B37" s="2">
-        <v>0.87990000000000002</v>
+        <v>0.85160000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>45788</v>
+        <v>45935</v>
       </c>
       <c r="B38" s="2">
-        <v>0.89580000000000004</v>
+        <v>0.86060000000000003</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>45781</v>
+        <v>45942</v>
       </c>
       <c r="B39" s="2">
-        <v>0.8891</v>
+        <v>0.85829999999999995</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>45774</v>
+        <v>45949</v>
       </c>
       <c r="B40" s="2">
-        <v>0.88529999999999998</v>
+        <v>0.86019999999999996</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <v>45767</v>
+        <v>45956</v>
       </c>
       <c r="B41" s="2">
-        <v>0.87990000000000002</v>
+        <v>0.8669</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>45760</v>
+        <v>45963</v>
       </c>
       <c r="B42" s="2">
-        <v>0.87780000000000002</v>
+        <v>0.86460000000000004</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <v>45753</v>
+        <v>45970</v>
       </c>
       <c r="B43" s="2">
-        <v>0.88029999999999997</v>
+        <v>0.86050000000000004</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>45746</v>
+        <v>45977</v>
       </c>
       <c r="B44" s="2">
-        <v>0.91279999999999994</v>
+        <v>0.86860000000000004</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <v>45739</v>
+        <v>45984</v>
       </c>
       <c r="B45" s="2">
-        <v>0.92349999999999999</v>
+        <v>0.86240000000000006</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <v>45732</v>
+        <v>45991</v>
       </c>
       <c r="B46" s="2">
-        <v>0.92469999999999997</v>
+        <v>0.85899999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <v>45725</v>
+        <v>45998</v>
       </c>
       <c r="B47" s="2">
-        <v>0.91910000000000003</v>
+        <v>0.8518</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
-        <v>45718</v>
+        <v>46005</v>
       </c>
       <c r="B48" s="2">
-        <v>0.92310000000000003</v>
+        <v>0.85399999999999998</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <v>45711</v>
+        <v>46012</v>
       </c>
       <c r="B49" s="2">
-        <v>0.96379999999999999</v>
+        <v>0.84940000000000004</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>45704</v>
+        <v>46019</v>
       </c>
       <c r="B50" s="2">
-        <v>0.95609999999999995</v>
+        <v>0.85329999999999995</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>45697</v>
+        <v>46026</v>
       </c>
       <c r="B51" s="2">
-        <v>0.95299999999999996</v>
+        <v>0.85929999999999995</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>45690</v>
+        <v>46033</v>
       </c>
       <c r="B52" s="2">
-        <v>0.96830000000000005</v>
+        <v>0.86219999999999997</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <v>45683</v>
+        <v>46040</v>
       </c>
       <c r="B53" s="2">
-        <v>0.96499999999999997</v>
+        <v>0.84540000000000004</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B53">
+    <sortCondition ref="A2:A53"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
